--- a/profiles/ETH/results/ETH_ind_summary.xlsx
+++ b/profiles/ETH/results/ETH_ind_summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">Group</t>
   </si>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">2010-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">Countries with similar GDP pc</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t xml:space="preserve">2011-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">FDI inflows to Agriculture, Forestry and Fishing</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t xml:space="preserve">1991-2000</t>
   </si>
   <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Food exports (% of merchandise exports)</t>
   </si>
   <si>
@@ -101,10 +92,7 @@
     <t xml:space="preserve">Indicator5</t>
   </si>
   <si>
-    <t xml:space="preserve">2002-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
+    <t xml:space="preserve">2007-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Population growth (annual %)</t>
@@ -122,9 +110,6 @@
     <t xml:space="preserve">2009-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Livestock production index (2014-2016 = 100)</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
     <t xml:space="preserve">2012-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">Retail value of packaged food sales per capita USD</t>
   </si>
   <si>
@@ -209,9 +191,6 @@
     <t xml:space="preserve">2006-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adult literacy rate, population 15+ years, both sexes (%)</t>
   </si>
   <si>
@@ -258,9 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">2012-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture, forestry, and fishing, value added per worker (constant 2015 US$)</t>
@@ -656,10 +632,10 @@
         <v>23.5</v>
       </c>
       <c r="D2" t="n">
-        <v>14.3</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>14.5</v>
+        <v>7.3</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -670,13 +646,13 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="I2" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="n">
         <v>10.2</v>
@@ -685,10 +661,10 @@
         <v>16.4</v>
       </c>
       <c r="D3" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>10.4</v>
+        <v>9.2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -699,13 +675,13 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="I3" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
@@ -714,10 +690,10 @@
         <v>11.6</v>
       </c>
       <c r="D4" t="n">
-        <v>25.6</v>
+        <v>26.5</v>
       </c>
       <c r="E4" t="n">
-        <v>20.9</v>
+        <v>17.2</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -728,13 +704,13 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="I4" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
         <v>56.9</v>
@@ -743,10 +719,10 @@
         <v>61.5</v>
       </c>
       <c r="D5" t="n">
-        <v>72399.3</v>
+        <v>57282.7</v>
       </c>
       <c r="E5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -757,8 +733,8 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
-        <v>13</v>
+      <c r="I5" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="6">
@@ -772,27 +748,27 @@
         <v>1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.9</v>
+        <v>5.9</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+      <c r="I6" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>1.1</v>
@@ -801,27 +777,27 @@
         <v>1.3</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8</v>
+        <v>4.7</v>
       </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
+      <c r="I7" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>1.2</v>
@@ -830,27 +806,27 @@
         <v>1.1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.4</v>
+        <v>-1.5</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
+      <c r="I8" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>0.8</v>
@@ -859,22 +835,22 @@
         <v>1.5</v>
       </c>
       <c r="D9" t="n">
-        <v>13.4</v>
+        <v>16.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
+      <c r="I9" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="10">
@@ -888,27 +864,27 @@
         <v>10.8</v>
       </c>
       <c r="D10" t="n">
-        <v>23.3</v>
+        <v>283.5</v>
       </c>
       <c r="E10" t="n">
-        <v>23.3</v>
+        <v>318.9</v>
       </c>
       <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
+      <c r="I10" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
         <v>24.8</v>
@@ -917,1361 +893,1361 @@
         <v>#NUM!</v>
       </c>
       <c r="D11" t="n">
-        <v>190.9</v>
+        <v>95.4</v>
       </c>
       <c r="E11" t="n">
-        <v>190.9</v>
+        <v>-21.6</v>
       </c>
       <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
+      <c r="I11" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>115.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>67.9</v>
+        <v>14</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
+      <c r="I12" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>74.7</v>
+        <v>7.8</v>
       </c>
       <c r="C13" t="n">
-        <v>77.6</v>
+        <v>2.5</v>
       </c>
       <c r="D13" t="n">
-        <v>1.6</v>
+        <v>121.4</v>
       </c>
       <c r="E13" t="n">
-        <v>3.8</v>
+        <v>0.1</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8</v>
+        <v>74.7</v>
       </c>
       <c r="C14" t="n">
-        <v>15.1</v>
+        <v>77.6</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>26.6</v>
+        <v>18.8</v>
       </c>
       <c r="C15" t="n">
-        <v>48.2</v>
+        <v>15.1</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3</v>
+        <v>2.8</v>
       </c>
       <c r="E15" t="n">
-        <v>39.6</v>
+        <v>0.1</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5</v>
+        <v>26.6</v>
       </c>
       <c r="C16" t="n">
-        <v>26.3</v>
+        <v>48.2</v>
       </c>
       <c r="D16" t="n">
-        <v>791.2</v>
+        <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>783.1</v>
+        <v>1.4</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.3</v>
+        <v>23.5</v>
       </c>
       <c r="C17" t="n">
-        <v>2.2</v>
+        <v>26.3</v>
       </c>
       <c r="D17" t="n">
+        <v>1185.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1178.7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" t="n">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
-        <v>30</v>
+        <v>18</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
         <v>2.2</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.7</v>
-      </c>
       <c r="D18" t="n">
-        <v>-5.8</v>
+        <v>1.3</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.8</v>
+        <v>1.3</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.7</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.4</v>
-      </c>
       <c r="D19" t="n">
-        <v>12.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E19" t="n">
-        <v>12.5</v>
+        <v>-1.1</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="D20" t="n">
-        <v>-1441.3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>-1441.3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="C21" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.9</v>
+        <v>-346.1</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.1</v>
+        <v>-346.1</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="C22" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.1</v>
+        <v>-1.5</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.8</v>
+        <v>-0.4</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.7</v>
+        <v>-0.1</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="D24" t="n">
-        <v>19.8</v>
+        <v>-2.1</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.3</v>
+        <v>-4.7</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>73.3</v>
+        <v>1.3</v>
       </c>
       <c r="C25" t="n">
-        <v>100.4</v>
+        <v>1.1</v>
       </c>
       <c r="D25" t="n">
-        <v>3.9</v>
+        <v>19.5</v>
       </c>
       <c r="E25" t="n">
-        <v>2.9</v>
+        <v>-1.2</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>85.7</v>
+        <v>73.3</v>
       </c>
       <c r="C26" t="n">
-        <v>107.2</v>
+        <v>100.4</v>
       </c>
       <c r="D26" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" t="n">
-        <v>96.5</v>
+        <v>85.7</v>
       </c>
       <c r="C27" t="n">
-        <v>105</v>
+        <v>107.2</v>
       </c>
       <c r="D27" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="E27" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>90.4</v>
+        <v>96.5</v>
       </c>
       <c r="C28" t="n">
-        <v>102.9</v>
+        <v>105</v>
       </c>
       <c r="D28" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="E28" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>88.7</v>
+        <v>90.4</v>
       </c>
       <c r="C29" t="n">
-        <v>96.2</v>
+        <v>102.9</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>89.7</v>
+        <v>88.7</v>
       </c>
       <c r="C30" t="n">
-        <v>110.6</v>
+        <v>96.2</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E30" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
-        <v>98.4</v>
+        <v>89.7</v>
       </c>
       <c r="C31" t="n">
-        <v>103.6</v>
+        <v>110.6</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
-        <v>92.2</v>
+        <v>98.4</v>
       </c>
       <c r="C32" t="n">
         <v>103.6</v>
       </c>
       <c r="D32" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>33.4</v>
+        <v>92.2</v>
       </c>
       <c r="C33" t="n">
-        <v>48.3</v>
+        <v>103.6</v>
       </c>
       <c r="D33" t="n">
-        <v>6.9</v>
+        <v>1.6</v>
       </c>
       <c r="E33" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>36.3</v>
+        <v>48.3</v>
       </c>
       <c r="D34" t="n">
-        <v>12.2</v>
+        <v>7.4</v>
       </c>
       <c r="E34" t="n">
-        <v>10.3</v>
+        <v>5.7</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
-        <v>13</v>
+      <c r="I34" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>29.5</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>52.5</v>
+        <v>36.3</v>
       </c>
       <c r="D35" t="n">
-        <v>7.5</v>
+        <v>12.4</v>
       </c>
       <c r="E35" t="n">
-        <v>6.2</v>
+        <v>9.9</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
       </c>
-      <c r="I35" t="s">
-        <v>13</v>
+      <c r="I35" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>80.4</v>
+        <v>29.5</v>
       </c>
       <c r="C36" t="n">
-        <v>86.6</v>
+        <v>52.5</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="E36" t="n">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
       </c>
-      <c r="I36" t="s">
-        <v>13</v>
+      <c r="I36" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>41.2</v>
+        <v>80.4</v>
       </c>
       <c r="C37" t="n">
-        <v>35.5</v>
+        <v>86.6</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.4</v>
+        <v>1.9</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>28.2</v>
+        <v>41.2</v>
       </c>
       <c r="C38" t="n">
-        <v>22.8</v>
+        <v>35.5</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.3</v>
+        <v>-1.5</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.4</v>
+        <v>-1.5</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" t="n">
-        <v>19.3</v>
+        <v>28.2</v>
       </c>
       <c r="C39" t="n">
-        <v>28</v>
+        <v>22.8</v>
       </c>
       <c r="D39" t="n">
-        <v>7.3</v>
+        <v>-3.4</v>
       </c>
       <c r="E39" t="n">
-        <v>5.6</v>
+        <v>-3.7</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>11.1</v>
+        <v>19.3</v>
       </c>
       <c r="C40" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3</v>
+        <v>8.3</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3</v>
+        <v>13.4</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1</v>
+        <v>11.1</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="C42" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="D42" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B43" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="C43" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D43" t="n">
-        <v>14.8</v>
+        <v>13.8</v>
       </c>
       <c r="E43" t="n">
-        <v>14.8</v>
+        <v>13.8</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" t="n">
-        <v>26.3</v>
+        <v>1.1</v>
       </c>
       <c r="C44" t="n">
-        <v>26.6</v>
+        <v>1.2</v>
       </c>
       <c r="D44" t="n">
-        <v>4.2</v>
+        <v>14.8</v>
       </c>
       <c r="E44" t="n">
-        <v>4.2</v>
+        <v>14.8</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>98</v>
+        <v>26.3</v>
       </c>
       <c r="C45" t="n">
-        <v>111</v>
+        <v>26.6</v>
       </c>
       <c r="D45" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="E45" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C46" t="n">
-        <v>108.6</v>
+        <v>111</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.4</v>
+        <v>1.4</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
       </c>
-      <c r="I46" t="s">
-        <v>13</v>
+      <c r="I46" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B47" t="n">
-        <v>92.7</v>
+        <v>113</v>
       </c>
       <c r="C47" t="n">
-        <v>98</v>
+        <v>108.6</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
       </c>
-      <c r="I47" t="s">
-        <v>13</v>
+      <c r="I47" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B48" t="n">
-        <v>117.7</v>
+        <v>92.7</v>
       </c>
       <c r="C48" t="n">
-        <v>120.5</v>
+        <v>98</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
       </c>
-      <c r="I48" t="s">
-        <v>13</v>
+      <c r="I48" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
-        <v>80.1</v>
+        <v>117.7</v>
       </c>
       <c r="C49" t="n">
-        <v>257.7</v>
+        <v>120.5</v>
       </c>
       <c r="D49" t="n">
-        <v>15.6</v>
+        <v>0.2</v>
       </c>
       <c r="E49" t="n">
-        <v>13.8</v>
+        <v>0.1</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>93.3</v>
+        <v>80.1</v>
       </c>
       <c r="C50" t="n">
-        <v>133</v>
+        <v>257.7</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>14.2</v>
       </c>
       <c r="E50" t="n">
-        <v>3.7</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51" t="n">
-        <v>64.2</v>
+        <v>93.3</v>
       </c>
       <c r="C51" t="n">
-        <v>1690.8</v>
+        <v>133</v>
       </c>
       <c r="D51" t="n">
-        <v>36.7</v>
+        <v>3.7</v>
       </c>
       <c r="E51" t="n">
-        <v>23.1</v>
+        <v>3.6</v>
       </c>
       <c r="F51" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52" t="n">
-        <v>89.4</v>
+        <v>64.2</v>
       </c>
       <c r="C52" t="n">
-        <v>162.6</v>
+        <v>1690.8</v>
       </c>
       <c r="D52" t="n">
-        <v>6.4</v>
+        <v>38</v>
       </c>
       <c r="E52" t="n">
-        <v>5.4</v>
+        <v>22.9</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>16.4</v>
+        <v>89.4</v>
       </c>
       <c r="C53" t="n">
-        <v>16.2</v>
+        <v>162.6</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.8</v>
+        <v>6.4</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.8</v>
+        <v>5.6</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
         <v>45</v>
       </c>
-      <c r="I53" t="s">
-        <v>36</v>
+      <c r="I53" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B54" t="n">
-        <v>39.1</v>
+        <v>16.4</v>
       </c>
       <c r="C54" t="n">
-        <v>41.4</v>
+        <v>16.2</v>
       </c>
       <c r="D54" t="n">
-        <v>6.7</v>
+        <v>-0.8</v>
       </c>
       <c r="E54" t="n">
-        <v>6.7</v>
+        <v>-0.8</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B55" t="n">
-        <v>51.3</v>
+        <v>39.1</v>
       </c>
       <c r="C55" t="n">
-        <v>52</v>
+        <v>41.4</v>
       </c>
       <c r="D55" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="E55" t="n">
-        <v>9.1</v>
+        <v>6.7</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" t="n">
-        <v>450.6</v>
+        <v>51.3</v>
       </c>
       <c r="C56" t="n">
-        <v>468.8</v>
+        <v>52</v>
       </c>
       <c r="D56" t="n">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="E56" t="n">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
-      </c>
-      <c r="I56" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>450.6</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>468.8</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.5</v>
+        <v>4.3</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5</v>
+        <v>4.3</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -2280,27 +2256,27 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
       </c>
-      <c r="I58" t="s">
-        <v>13</v>
+      <c r="I58" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -2309,27 +2285,27 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
       </c>
-      <c r="I59" t="s">
-        <v>13</v>
+      <c r="I59" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -2338,700 +2314,700 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E60" t="n">
         <v>0.5</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
       </c>
-      <c r="I60" t="s">
-        <v>13</v>
+      <c r="I60" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>73.5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-1.9</v>
+        <v>0.7</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B62" t="n">
-        <v>44.1</v>
+        <v>73.5</v>
       </c>
       <c r="C62" t="n">
-        <v>44.1</v>
+        <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>2.8</v>
+        <v>-1.9</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B63" t="n">
-        <v>50</v>
+        <v>44.1</v>
       </c>
       <c r="C63" t="n">
-        <v>50</v>
+        <v>44.1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B64" t="n">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="C64" t="n">
-        <v>62.1</v>
+        <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>1243858.7</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>50</v>
-      </c>
-      <c r="I64" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B65" t="n">
-        <v>5.2</v>
+        <v>53.5</v>
       </c>
       <c r="C65" t="n">
-        <v>5.4</v>
+        <v>62.1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6</v>
+        <v>1243858.7</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F65" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s">
-        <v>50</v>
-      </c>
-      <c r="I65" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B66" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="C66" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D66" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>50</v>
-      </c>
-      <c r="I66" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B67" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="C67" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="E67" t="n">
         <v>0.9</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H67" t="s">
-        <v>50</v>
-      </c>
-      <c r="I67" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="C68" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D68" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F68" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H68" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>20.7</v>
+        <v>5.2</v>
       </c>
       <c r="C69" t="n">
-        <v>20.8</v>
+        <v>5.7</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3</v>
+        <v>3.4</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G69" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H69" t="s">
         <v>45</v>
       </c>
-      <c r="I69" t="s">
-        <v>36</v>
+      <c r="I69" t="n">
+        <v>2021</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>22.9</v>
+        <v>20.7</v>
       </c>
       <c r="C70" t="n">
-        <v>24.5</v>
+        <v>20.8</v>
       </c>
       <c r="D70" t="n">
-        <v>6.8</v>
+        <v>0.3</v>
       </c>
       <c r="E70" t="n">
-        <v>6.8</v>
+        <v>0.3</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H70" t="s">
-        <v>45</v>
-      </c>
-      <c r="I70" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B71" t="n">
-        <v>27.3</v>
+        <v>22.9</v>
       </c>
       <c r="C71" t="n">
-        <v>28.4</v>
+        <v>24.5</v>
       </c>
       <c r="D71" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="E71" t="n">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G71" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H71" t="s">
-        <v>45</v>
-      </c>
-      <c r="I71" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B72" t="n">
-        <v>285.5</v>
+        <v>27.3</v>
       </c>
       <c r="C72" t="n">
-        <v>296.3</v>
+        <v>28.4</v>
       </c>
       <c r="D72" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="E72" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
-      </c>
-      <c r="I72" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B73" t="n">
-        <v>38.5</v>
+        <v>285.5</v>
       </c>
       <c r="C73" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D73" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E73" t="e">
-        <v>#NUM!</v>
+        <v>296.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.2</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H73" t="s">
-        <v>64</v>
-      </c>
-      <c r="I73" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B74" t="n">
-        <v>57.1</v>
+        <v>38.5</v>
       </c>
       <c r="C74" t="n">
-        <v>47.9</v>
-      </c>
-      <c r="D74" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E74" t="e">
-        <v>#NUM!</v>
+        <v>30.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-2.3</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H74" t="s">
-        <v>64</v>
-      </c>
-      <c r="I74" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B75" t="n">
-        <v>43.9</v>
+        <v>57.1</v>
       </c>
       <c r="C75" t="n">
-        <v>48.6</v>
+        <v>47.9</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.6</v>
+        <v>-2.1</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H75" t="s">
-        <v>64</v>
-      </c>
-      <c r="I75" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B76" t="n">
-        <v>15.2</v>
+        <v>43.9</v>
       </c>
       <c r="C76" t="n">
-        <v>10.9</v>
+        <v>48.6</v>
       </c>
       <c r="D76" t="n">
-        <v>38807.2</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>4101.2</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H76" t="s">
-        <v>64</v>
-      </c>
-      <c r="I76" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B77" t="n">
-        <v>39</v>
+        <v>15.2</v>
       </c>
       <c r="C77" t="n">
-        <v>51.8</v>
+        <v>10.9</v>
       </c>
       <c r="D77" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E77" t="e">
-        <v>#NUM!</v>
+        <v>22849.2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>8046.4</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G77" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H77" t="s">
-        <v>68</v>
-      </c>
-      <c r="I77" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>46.7</v>
+        <v>39</v>
       </c>
       <c r="C78" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" t="s">
         <v>60</v>
       </c>
-      <c r="D78" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>66</v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
-      </c>
       <c r="H78" t="s">
-        <v>68</v>
-      </c>
-      <c r="I78" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B79" t="n">
-        <v>54.3</v>
+        <v>46.7</v>
       </c>
       <c r="C79" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="D79" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E79" t="e">
-        <v>#NUM!</v>
+        <v>60</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.4</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G79" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>68</v>
-      </c>
-      <c r="I79" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B80" t="n">
-        <v>78.3</v>
+        <v>54.3</v>
       </c>
       <c r="C80" t="n">
-        <v>82.9</v>
+        <v>63.3</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1</v>
+        <v>2.2</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
-      </c>
-      <c r="I80" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B81" t="n">
-        <v>49.9</v>
+        <v>78.3</v>
       </c>
       <c r="C81" t="n">
-        <v>50</v>
+        <v>82.9</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F81" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G81" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2017</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B82" t="n">
-        <v>49.3</v>
+        <v>49.9</v>
       </c>
       <c r="C82" t="n">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
-        <v>19</v>
-      </c>
-      <c r="I82" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
-        <v>49.9</v>
+        <v>49.3</v>
       </c>
       <c r="C83" t="n">
-        <v>49.8</v>
+        <v>49.6</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H83" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B84" t="n">
-        <v>50</v>
+        <v>49.9</v>
       </c>
       <c r="C84" t="n">
-        <v>50.1</v>
+        <v>49.8</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -3040,1060 +3016,1089 @@
         <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H84" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B85" t="n">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C85" t="n">
-        <v>75</v>
+        <v>50.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
-      </c>
-      <c r="I85" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B86" t="n">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C86" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D86" t="n">
         <v>-0.1</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G86" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H86" t="s">
-        <v>35</v>
-      </c>
-      <c r="I86" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B87" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C87" t="n">
-        <v>55.5</v>
+        <v>67</v>
       </c>
       <c r="D87" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G87" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H87" t="s">
-        <v>35</v>
-      </c>
-      <c r="I87" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B88" t="n">
-        <v>46.2</v>
+        <v>37</v>
       </c>
       <c r="C88" t="n">
-        <v>46.4</v>
+        <v>55.5</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1</v>
+        <v>11</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G88" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H88" t="s">
-        <v>35</v>
-      </c>
-      <c r="I88" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B89" t="n">
-        <v>2.4</v>
+        <v>46.2</v>
       </c>
       <c r="C89" t="n">
-        <v>2.7</v>
+        <v>46.4</v>
       </c>
       <c r="D89" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2.9</v>
+        <v>-0.4</v>
       </c>
       <c r="F89" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H89" t="s">
-        <v>35</v>
-      </c>
-      <c r="I89" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B90" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="C90" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D90" t="n">
         <v>1.5</v>
       </c>
-      <c r="D90" t="n">
-        <v>1.8</v>
-      </c>
       <c r="E90" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="F90" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H90" t="s">
-        <v>35</v>
-      </c>
-      <c r="I90" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B91" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="D91" t="n">
-        <v>347140.9</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G91" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
-      </c>
-      <c r="I91" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B92" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="C92" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="D92" t="n">
-        <v>7759.8</v>
+        <v>269998.7</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F92" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G92" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H92" t="s">
-        <v>35</v>
-      </c>
-      <c r="I92" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B93" t="n">
-        <v>10.5</v>
+        <v>2.3</v>
       </c>
       <c r="C93" t="n">
-        <v>10.3</v>
+        <v>2.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.2</v>
+        <v>5269.4</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F93" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G93" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H93" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B94" t="n">
-        <v>18.4</v>
+        <v>10.5</v>
       </c>
       <c r="C94" t="n">
-        <v>16.9</v>
+        <v>10.3</v>
       </c>
       <c r="D94" t="n">
-        <v>-3.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F94" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H94" t="s">
-        <v>19</v>
-      </c>
-      <c r="I94" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B95" t="n">
-        <v>5.8</v>
+        <v>18.4</v>
       </c>
       <c r="C95" t="n">
-        <v>5.8</v>
+        <v>16.9</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="F95" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H95" t="s">
-        <v>19</v>
-      </c>
-      <c r="I95" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B96" t="n">
-        <v>35.4</v>
+        <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>33.5</v>
+        <v>5.8</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F96" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H96" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B97" t="n">
-        <v>27.6</v>
+        <v>35.4</v>
       </c>
       <c r="C97" t="n">
-        <v>16.2</v>
+        <v>33.5</v>
       </c>
       <c r="D97" t="n">
-        <v>-5.4</v>
+        <v>-0.6</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.4</v>
+        <v>-0.5</v>
       </c>
       <c r="F97" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G97" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B98" t="n">
-        <v>9.8</v>
+        <v>27.6</v>
       </c>
       <c r="C98" t="n">
-        <v>12.4</v>
+        <v>16.2</v>
       </c>
       <c r="D98" t="n">
-        <v>2.4</v>
+        <v>-5.3</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="F98" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H98" t="s">
         <v>12</v>
       </c>
-      <c r="I98" t="s">
-        <v>13</v>
+      <c r="I98" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>38.8</v>
+        <v>9.8</v>
       </c>
       <c r="C99" t="n">
-        <v>32.2</v>
+        <v>12.4</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.1</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.8</v>
+        <v>3.2</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G99" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H99" t="s">
         <v>12</v>
       </c>
-      <c r="I99" t="s">
-        <v>13</v>
+      <c r="I99" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B100" t="n">
-        <v>10.8</v>
+        <v>38.8</v>
       </c>
       <c r="C100" t="n">
-        <v>10.2</v>
+        <v>32.2</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.7</v>
+        <v>-1.7</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G100" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H100" t="s">
         <v>12</v>
       </c>
-      <c r="I100" t="s">
-        <v>13</v>
+      <c r="I100" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B101" t="n">
-        <v>3.6</v>
+        <v>10.8</v>
       </c>
       <c r="C101" t="n">
-        <v>4.5</v>
+        <v>10.2</v>
       </c>
       <c r="D101" t="n">
-        <v>25</v>
+        <v>-0.5</v>
       </c>
       <c r="E101" t="n">
-        <v>25</v>
+        <v>-0.5</v>
       </c>
       <c r="F101" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G101" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H101" t="s">
-        <v>81</v>
-      </c>
-      <c r="I101" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B102" t="n">
-        <v>6.1</v>
+        <v>3.6</v>
       </c>
       <c r="C102" t="n">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="D102" t="n">
-        <v>21.3</v>
+        <v>6.2</v>
       </c>
       <c r="E102" t="n">
-        <v>21.3</v>
+        <v>6.2</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>81</v>
-      </c>
-      <c r="I102" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B103" t="n">
-        <v>3.4</v>
+        <v>6.1</v>
       </c>
       <c r="C103" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="D103" t="n">
-        <v>12.2</v>
+        <v>5.3</v>
       </c>
       <c r="E103" t="n">
-        <v>12.2</v>
+        <v>5.3</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>81</v>
-      </c>
-      <c r="I103" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B104" t="n">
-        <v>18</v>
+        <v>3.4</v>
       </c>
       <c r="C104" t="n">
-        <v>19.8</v>
+        <v>4.1</v>
       </c>
       <c r="D104" t="n">
-        <v>12.7</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>12.7</v>
+        <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>81</v>
-      </c>
-      <c r="I104" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B105" t="n">
-        <v>597.9</v>
+        <v>18</v>
       </c>
       <c r="C105" t="n">
-        <v>804</v>
+        <v>19.8</v>
       </c>
       <c r="D105" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="F105" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G105" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2016</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B106" t="n">
-        <v>888.9</v>
+        <v>597.9</v>
       </c>
       <c r="C106" t="n">
-        <v>1100.7</v>
+        <v>804</v>
       </c>
       <c r="D106" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="E106" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H106" t="s">
         <v>12</v>
       </c>
-      <c r="I106" t="s">
-        <v>13</v>
+      <c r="I106" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B107" t="n">
-        <v>1841.1</v>
+        <v>888.9</v>
       </c>
       <c r="C107" t="n">
-        <v>2840.4</v>
+        <v>1100.7</v>
       </c>
       <c r="D107" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.4</v>
+        <v>3.8</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G107" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H107" t="s">
         <v>12</v>
       </c>
-      <c r="I107" t="s">
-        <v>13</v>
+      <c r="I107" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B108" t="n">
-        <v>13777.3</v>
+        <v>1841.1</v>
       </c>
       <c r="C108" t="n">
-        <v>32140.9</v>
+        <v>2840.4</v>
       </c>
       <c r="D108" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E108" t="n">
-        <v>3.3</v>
+        <v>-4.2</v>
       </c>
       <c r="F108" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G108" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H108" t="s">
         <v>12</v>
       </c>
-      <c r="I108" t="s">
-        <v>13</v>
+      <c r="I108" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B109" t="n">
-        <v>46.6</v>
+        <v>13777.3</v>
       </c>
       <c r="C109" t="n">
-        <v>36.6</v>
+        <v>32140.9</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.1</v>
+        <v>3.5</v>
       </c>
       <c r="E109" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="F109" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
-      </c>
-      <c r="I109" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" t="e">
-        <v>#NUM!</v>
+        <v>9</v>
+      </c>
+      <c r="B110" t="n">
+        <v>46.6</v>
       </c>
       <c r="C110" t="n">
-        <v>32</v>
+        <v>36.6</v>
       </c>
       <c r="D110" t="n">
-        <v>-2.3</v>
+        <v>-0.8</v>
       </c>
       <c r="E110" t="n">
-        <v>-2.3</v>
+        <v>2.8</v>
       </c>
       <c r="F110" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s">
-        <v>64</v>
-      </c>
-      <c r="I110" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" t="n">
-        <v>43.5</v>
+        <v>13</v>
+      </c>
+      <c r="B111" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="C111" t="n">
-        <v>48.3</v>
+        <v>32</v>
       </c>
       <c r="D111" t="n">
-        <v>430.3</v>
+        <v>-2.3</v>
       </c>
       <c r="E111" t="n">
-        <v>-4.7</v>
+        <v>-2.3</v>
       </c>
       <c r="F111" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H111" t="s">
-        <v>64</v>
-      </c>
-      <c r="I111" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B112" t="n">
-        <v>23.7</v>
+        <v>43.5</v>
       </c>
       <c r="C112" t="n">
-        <v>24.2</v>
+        <v>48.3</v>
       </c>
       <c r="D112" t="n">
-        <v>9.4</v>
+        <v>479.1</v>
       </c>
       <c r="E112" t="n">
-        <v>1.1</v>
+        <v>-4.2</v>
       </c>
       <c r="F112" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H112" t="s">
-        <v>64</v>
-      </c>
-      <c r="I112" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>68.2</v>
+        <v>23.7</v>
       </c>
       <c r="C113" t="n">
-        <v>58.7</v>
+        <v>24.2</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.6</v>
+        <v>10.3</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.6</v>
+        <v>0.7</v>
       </c>
       <c r="F113" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B114" t="n">
-        <v>64.7</v>
+        <v>68.2</v>
       </c>
       <c r="C114" t="n">
-        <v>55.9</v>
+        <v>58.7</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.3</v>
+        <v>-1.6</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.4</v>
+        <v>-1.6</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G114" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
       </c>
-      <c r="I114" t="s">
-        <v>13</v>
+      <c r="I114" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B115" t="n">
-        <v>71.8</v>
+        <v>64.7</v>
       </c>
       <c r="C115" t="n">
-        <v>65.9</v>
+        <v>55.9</v>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>-2.1</v>
       </c>
       <c r="E115" t="n">
-        <v>-1</v>
+        <v>-2.1</v>
       </c>
       <c r="F115" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
       </c>
-      <c r="I115" t="s">
-        <v>13</v>
+      <c r="I115" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>26.7</v>
+        <v>71.8</v>
       </c>
       <c r="C116" t="n">
-        <v>22</v>
+        <v>65.9</v>
       </c>
       <c r="D116" t="n">
-        <v>-2.6</v>
+        <v>-1</v>
       </c>
       <c r="E116" t="n">
-        <v>-2.6</v>
+        <v>-1</v>
       </c>
       <c r="F116" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
       </c>
-      <c r="I116" t="s">
-        <v>13</v>
+      <c r="I116" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>29.8</v>
+        <v>26.7</v>
       </c>
       <c r="C117" t="n">
-        <v>35</v>
-      </c>
-      <c r="D117" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E117" t="e">
-        <v>#NUM!</v>
+        <v>22</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-2.5</v>
       </c>
       <c r="F117" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G117" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H117" t="s">
-        <v>64</v>
-      </c>
-      <c r="I117" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B118" t="n">
-        <v>45.5</v>
+        <v>29.8</v>
       </c>
       <c r="C118" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="D118" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E118" t="e">
-        <v>#NUM!</v>
+        <v>35</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.9</v>
       </c>
       <c r="F118" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G118" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H118" t="s">
-        <v>64</v>
-      </c>
-      <c r="I118" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B119" t="n">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="C119" t="n">
-        <v>37.3</v>
+        <v>45.1</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="E119" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="F119" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G119" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H119" t="s">
-        <v>64</v>
-      </c>
-      <c r="I119" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2015</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B120" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>81</v>
+      </c>
+      <c r="G120" t="s">
+        <v>82</v>
+      </c>
+      <c r="H120" t="s">
+        <v>58</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" t="n">
         <v>38.9</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C121" t="n">
         <v>38.1</v>
       </c>
-      <c r="D120" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="E120" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="F120" t="s">
-        <v>89</v>
-      </c>
-      <c r="G120" t="s">
-        <v>90</v>
-      </c>
-      <c r="H120" t="s">
-        <v>64</v>
-      </c>
-      <c r="I120" t="s">
-        <v>65</v>
+      <c r="D121" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F121" t="s">
+        <v>81</v>
+      </c>
+      <c r="G121" t="s">
+        <v>82</v>
+      </c>
+      <c r="H121" t="s">
+        <v>58</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>

--- a/profiles/ETH/results/ETH_ind_summary.xlsx
+++ b/profiles/ETH/results/ETH_ind_summary.xlsx
@@ -626,16 +626,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>9.96</v>
       </c>
       <c r="C2" t="n">
-        <v>23.5</v>
+        <v>23.47</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>13.03</v>
       </c>
       <c r="E2" t="n">
-        <v>7.3</v>
+        <v>7.31</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -655,16 +655,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2</v>
+        <v>10.152</v>
       </c>
       <c r="C3" t="n">
-        <v>16.4</v>
+        <v>16.385</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2</v>
+        <v>12.17</v>
       </c>
       <c r="E3" t="n">
-        <v>9.2</v>
+        <v>9.238</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -684,16 +684,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4.983</v>
       </c>
       <c r="C4" t="n">
-        <v>11.6</v>
+        <v>11.577</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5</v>
+        <v>26.487</v>
       </c>
       <c r="E4" t="n">
-        <v>17.2</v>
+        <v>17.16</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -713,16 +713,16 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>56.9</v>
+        <v>56.906</v>
       </c>
       <c r="C5" t="n">
-        <v>61.5</v>
+        <v>61.547</v>
       </c>
       <c r="D5" t="n">
-        <v>57282.7</v>
+        <v>57282.729</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3.967</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1.1</v>
+        <v>1.137</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4</v>
+        <v>1.358</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1</v>
+        <v>4.14</v>
       </c>
       <c r="E6" t="n">
         <v>5.9</v>
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1.1</v>
+        <v>1.111</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3</v>
+        <v>1.346</v>
       </c>
       <c r="D7" t="n">
-        <v>7.6</v>
+        <v>7.648</v>
       </c>
       <c r="E7" t="n">
-        <v>4.7</v>
+        <v>4.686</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -800,16 +800,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>1.2</v>
+        <v>1.212</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1</v>
+        <v>1.088</v>
       </c>
       <c r="D8" t="n">
-        <v>3.7</v>
+        <v>3.718</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.5</v>
+        <v>-1.53</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -829,16 +829,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="C9" t="n">
-        <v>1.5</v>
+        <v>1.519</v>
       </c>
       <c r="D9" t="n">
-        <v>16.1</v>
+        <v>16.134</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9</v>
+        <v>6.923</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -857,17 +857,17 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="n">
+        <v>0.581</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8</v>
+        <v>10.769</v>
       </c>
       <c r="D10" t="n">
-        <v>283.5</v>
+        <v>283.46</v>
       </c>
       <c r="E10" t="n">
-        <v>318.9</v>
+        <v>31.8</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -887,16 +887,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="C11" t="e">
-        <v>#NUM!</v>
+        <v>24.841</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47.944</v>
       </c>
       <c r="D11" t="n">
-        <v>95.4</v>
+        <v>95.45</v>
       </c>
       <c r="E11" t="n">
-        <v>-21.6</v>
+        <v>21.56</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -945,16 +945,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>7.8</v>
+        <v>7.536</v>
       </c>
       <c r="C13" t="n">
-        <v>2.5</v>
+        <v>3.194</v>
       </c>
       <c r="D13" t="n">
-        <v>121.4</v>
+        <v>121.45</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>-4.059</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
@@ -974,16 +974,16 @@
         <v>9</v>
       </c>
       <c r="B14" t="n">
-        <v>74.7</v>
+        <v>74.658</v>
       </c>
       <c r="C14" t="n">
-        <v>77.6</v>
+        <v>77.578</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1003,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8</v>
+        <v>18.797</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1</v>
+        <v>15.131</v>
       </c>
       <c r="D15" t="n">
-        <v>2.8</v>
+        <v>2.815</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1</v>
+        <v>0.137</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1032,16 +1032,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>26.6</v>
+        <v>26.574</v>
       </c>
       <c r="C16" t="n">
-        <v>48.2</v>
+        <v>48.217</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E16" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1061,16 +1061,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.5</v>
+        <v>23.539</v>
       </c>
       <c r="C17" t="n">
-        <v>26.3</v>
+        <v>26.26</v>
       </c>
       <c r="D17" t="n">
-        <v>1185.6</v>
+        <v>1185.577</v>
       </c>
       <c r="E17" t="n">
-        <v>1178.7</v>
+        <v>1178.714</v>
       </c>
       <c r="F17" t="s">
         <v>22</v>
@@ -1090,16 +1090,16 @@
         <v>9</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="C18" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="D18" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="F18" t="s">
         <v>24</v>
@@ -1119,16 +1119,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1.992</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7</v>
+        <v>1.736</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.1</v>
+        <v>-1.112</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.1</v>
+        <v>-1.112</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
@@ -1148,16 +1148,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="n">
-        <v>1.5</v>
+        <v>1.482</v>
       </c>
       <c r="C20" t="n">
-        <v>1.4</v>
+        <v>1.352</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3.978</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3.978</v>
       </c>
       <c r="F20" t="s">
         <v>24</v>
@@ -1177,16 +1177,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6</v>
+        <v>0.579</v>
       </c>
       <c r="D21" t="n">
-        <v>-346.1</v>
+        <v>-346.147</v>
       </c>
       <c r="E21" t="n">
-        <v>-346.1</v>
+        <v>-346.147</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
@@ -1206,16 +1206,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>2.8</v>
+        <v>2.813</v>
       </c>
       <c r="C22" t="n">
-        <v>2.5</v>
+        <v>2.541</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.1</v>
+        <v>-1.12</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.5</v>
+        <v>-1.51</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
@@ -1235,16 +1235,16 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>2.975</v>
       </c>
       <c r="C23" t="n">
-        <v>2.9</v>
+        <v>2.874</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.4</v>
+        <v>-0.388</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.1</v>
+        <v>-0.124</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
@@ -1264,16 +1264,16 @@
         <v>14</v>
       </c>
       <c r="B24" t="n">
-        <v>2.5</v>
+        <v>2.483</v>
       </c>
       <c r="C24" t="n">
-        <v>2.2</v>
+        <v>2.175</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.1</v>
+        <v>-2.13</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.7</v>
+        <v>-4.728</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
@@ -1293,16 +1293,16 @@
         <v>15</v>
       </c>
       <c r="B25" t="n">
-        <v>1.3</v>
+        <v>1.324</v>
       </c>
       <c r="C25" t="n">
-        <v>1.1</v>
+        <v>1.147</v>
       </c>
       <c r="D25" t="n">
-        <v>19.5</v>
+        <v>19.504</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.2</v>
+        <v>-1.175</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
@@ -1322,16 +1322,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>73.3</v>
+        <v>73.26</v>
       </c>
       <c r="C26" t="n">
-        <v>100.4</v>
+        <v>100.37</v>
       </c>
       <c r="D26" t="n">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="E26" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="F26" t="s">
         <v>29</v>
@@ -1351,16 +1351,16 @@
         <v>13</v>
       </c>
       <c r="B27" t="n">
-        <v>85.7</v>
+        <v>85.67</v>
       </c>
       <c r="C27" t="n">
-        <v>107.2</v>
+        <v>107.208</v>
       </c>
       <c r="D27" t="n">
-        <v>2.7</v>
+        <v>2.714</v>
       </c>
       <c r="E27" t="n">
-        <v>2.9</v>
+        <v>2.936</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -1380,16 +1380,16 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>96.5</v>
+        <v>96.522</v>
       </c>
       <c r="C28" t="n">
-        <v>105</v>
+        <v>105.002</v>
       </c>
       <c r="D28" t="n">
-        <v>1.3</v>
+        <v>1.326</v>
       </c>
       <c r="E28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="F28" t="s">
         <v>29</v>
@@ -1409,16 +1409,16 @@
         <v>15</v>
       </c>
       <c r="B29" t="n">
-        <v>90.4</v>
+        <v>90.379</v>
       </c>
       <c r="C29" t="n">
-        <v>102.9</v>
+        <v>102.938</v>
       </c>
       <c r="D29" t="n">
-        <v>1.6</v>
+        <v>1.619</v>
       </c>
       <c r="E29" t="n">
-        <v>1.8</v>
+        <v>1.767</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
@@ -1438,16 +1438,16 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>88.7</v>
+        <v>88.71</v>
       </c>
       <c r="C30" t="n">
-        <v>96.2</v>
+        <v>96.19</v>
       </c>
       <c r="D30" t="n">
         <v>1.2</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -1467,13 +1467,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="n">
-        <v>89.7</v>
+        <v>89.652</v>
       </c>
       <c r="C31" t="n">
-        <v>110.6</v>
+        <v>110.586</v>
       </c>
       <c r="D31" t="n">
-        <v>2.5</v>
+        <v>2.508</v>
       </c>
       <c r="E31" t="n">
         <v>3.6</v>
@@ -1496,16 +1496,16 @@
         <v>14</v>
       </c>
       <c r="B32" t="n">
-        <v>98.4</v>
+        <v>98.43</v>
       </c>
       <c r="C32" t="n">
-        <v>103.6</v>
+        <v>103.575</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6</v>
+        <v>0.612</v>
       </c>
       <c r="E32" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -1525,16 +1525,16 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>92.2</v>
+        <v>92.233</v>
       </c>
       <c r="C33" t="n">
-        <v>103.6</v>
+        <v>103.619</v>
       </c>
       <c r="D33" t="n">
-        <v>1.6</v>
+        <v>1.564</v>
       </c>
       <c r="E33" t="n">
-        <v>1.8</v>
+        <v>1.776</v>
       </c>
       <c r="F33" t="s">
         <v>32</v>
@@ -1554,16 +1554,16 @@
         <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>33.4</v>
+        <v>33.36</v>
       </c>
       <c r="C34" t="n">
-        <v>48.3</v>
+        <v>48.272</v>
       </c>
       <c r="D34" t="n">
         <v>7.4</v>
       </c>
       <c r="E34" t="n">
-        <v>5.7</v>
+        <v>5.67</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -1583,16 +1583,16 @@
         <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>16.021</v>
       </c>
       <c r="C35" t="n">
-        <v>36.3</v>
+        <v>36.348</v>
       </c>
       <c r="D35" t="n">
-        <v>12.4</v>
+        <v>12.422</v>
       </c>
       <c r="E35" t="n">
-        <v>9.9</v>
+        <v>9.888</v>
       </c>
       <c r="F35" t="s">
         <v>34</v>
@@ -1612,16 +1612,16 @@
         <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>29.5</v>
+        <v>29.515</v>
       </c>
       <c r="C36" t="n">
-        <v>52.5</v>
+        <v>52.486</v>
       </c>
       <c r="D36" t="n">
-        <v>7.6</v>
+        <v>7.648</v>
       </c>
       <c r="E36" t="n">
-        <v>6.5</v>
+        <v>6.452</v>
       </c>
       <c r="F36" t="s">
         <v>34</v>
@@ -1641,16 +1641,16 @@
         <v>15</v>
       </c>
       <c r="B37" t="n">
-        <v>80.4</v>
+        <v>80.436</v>
       </c>
       <c r="C37" t="n">
-        <v>86.6</v>
+        <v>86.595</v>
       </c>
       <c r="D37" t="n">
-        <v>1.9</v>
+        <v>1.903</v>
       </c>
       <c r="E37" t="n">
-        <v>1.6</v>
+        <v>1.647</v>
       </c>
       <c r="F37" t="s">
         <v>34</v>
@@ -1670,16 +1670,16 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>41.2</v>
+        <v>41.25</v>
       </c>
       <c r="C38" t="n">
-        <v>35.5</v>
+        <v>35.451</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.5</v>
+        <v>-1.48</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.5</v>
+        <v>-1.48</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -1699,16 +1699,16 @@
         <v>13</v>
       </c>
       <c r="B39" t="n">
-        <v>28.2</v>
+        <v>28.219</v>
       </c>
       <c r="C39" t="n">
-        <v>22.8</v>
+        <v>22.829</v>
       </c>
       <c r="D39" t="n">
-        <v>-3.4</v>
+        <v>-3.438</v>
       </c>
       <c r="E39" t="n">
-        <v>-3.7</v>
+        <v>-3.696</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
@@ -1728,16 +1728,16 @@
         <v>14</v>
       </c>
       <c r="B40" t="n">
-        <v>19.3</v>
+        <v>19.267</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>28.034</v>
       </c>
       <c r="D40" t="n">
-        <v>8.3</v>
+        <v>8.303</v>
       </c>
       <c r="E40" t="n">
-        <v>13.4</v>
+        <v>13.42</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
@@ -1757,16 +1757,16 @@
         <v>15</v>
       </c>
       <c r="B41" t="n">
-        <v>11.1</v>
+        <v>11.065</v>
       </c>
       <c r="C41" t="n">
-        <v>10.5</v>
+        <v>10.454</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3</v>
+        <v>0.319</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3</v>
+        <v>-0.295</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
@@ -1786,10 +1786,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>13</v>
       </c>
       <c r="B43" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="C43" t="n">
-        <v>1.8</v>
+        <v>1.778</v>
       </c>
       <c r="D43" t="n">
-        <v>13.8</v>
+        <v>13.76</v>
       </c>
       <c r="E43" t="n">
-        <v>13.8</v>
+        <v>13.76</v>
       </c>
       <c r="F43" t="s">
         <v>38</v>
@@ -1844,16 +1844,16 @@
         <v>14</v>
       </c>
       <c r="B44" t="n">
-        <v>1.1</v>
+        <v>1.052</v>
       </c>
       <c r="C44" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="D44" t="n">
-        <v>14.8</v>
+        <v>14.768</v>
       </c>
       <c r="E44" t="n">
-        <v>14.8</v>
+        <v>14.768</v>
       </c>
       <c r="F44" t="s">
         <v>38</v>
@@ -1873,16 +1873,16 @@
         <v>15</v>
       </c>
       <c r="B45" t="n">
-        <v>26.3</v>
+        <v>26.343</v>
       </c>
       <c r="C45" t="n">
-        <v>26.6</v>
+        <v>26.642</v>
       </c>
       <c r="D45" t="n">
-        <v>4.2</v>
+        <v>4.206</v>
       </c>
       <c r="E45" t="n">
-        <v>4.2</v>
+        <v>4.206</v>
       </c>
       <c r="F45" t="s">
         <v>38</v>
@@ -1937,10 +1937,10 @@
         <v>108.6</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.5</v>
+        <v>-0.454</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6</v>
+        <v>-0.552</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -1960,16 +1960,16 @@
         <v>14</v>
       </c>
       <c r="B48" t="n">
-        <v>92.7</v>
+        <v>92.667</v>
       </c>
       <c r="C48" t="n">
         <v>98</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7</v>
+        <v>0.737</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F48" t="s">
         <v>41</v>
@@ -1989,16 +1989,16 @@
         <v>15</v>
       </c>
       <c r="B49" t="n">
-        <v>117.7</v>
+        <v>117.696</v>
       </c>
       <c r="C49" t="n">
-        <v>120.5</v>
+        <v>120.533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2</v>
+        <v>0.152</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1</v>
+        <v>0.149</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
@@ -2018,16 +2018,16 @@
         <v>9</v>
       </c>
       <c r="B50" t="n">
-        <v>80.1</v>
+        <v>80.099</v>
       </c>
       <c r="C50" t="n">
-        <v>257.7</v>
+        <v>257.744</v>
       </c>
       <c r="D50" t="n">
-        <v>14.2</v>
+        <v>14.16</v>
       </c>
       <c r="E50" t="n">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="F50" t="s">
         <v>43</v>
@@ -2047,16 +2047,16 @@
         <v>13</v>
       </c>
       <c r="B51" t="n">
-        <v>93.3</v>
+        <v>93.304</v>
       </c>
       <c r="C51" t="n">
-        <v>133</v>
+        <v>133.008</v>
       </c>
       <c r="D51" t="n">
-        <v>3.7</v>
+        <v>3.682</v>
       </c>
       <c r="E51" t="n">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="F51" t="s">
         <v>43</v>
@@ -2076,16 +2076,16 @@
         <v>14</v>
       </c>
       <c r="B52" t="n">
-        <v>64.2</v>
+        <v>64.169</v>
       </c>
       <c r="C52" t="n">
-        <v>1690.8</v>
+        <v>1690.832</v>
       </c>
       <c r="D52" t="n">
-        <v>38</v>
+        <v>38.04</v>
       </c>
       <c r="E52" t="n">
-        <v>22.9</v>
+        <v>22.915</v>
       </c>
       <c r="F52" t="s">
         <v>43</v>
@@ -2105,16 +2105,16 @@
         <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>89.4</v>
+        <v>89.384</v>
       </c>
       <c r="C53" t="n">
-        <v>162.6</v>
+        <v>162.613</v>
       </c>
       <c r="D53" t="n">
-        <v>6.4</v>
+        <v>6.449</v>
       </c>
       <c r="E53" t="n">
-        <v>5.6</v>
+        <v>5.573</v>
       </c>
       <c r="F53" t="s">
         <v>43</v>
@@ -2134,16 +2134,16 @@
         <v>9</v>
       </c>
       <c r="B54" t="n">
-        <v>16.4</v>
+        <v>16.36</v>
       </c>
       <c r="C54" t="n">
-        <v>16.2</v>
+        <v>16.23</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.8</v>
+        <v>-0.79</v>
       </c>
       <c r="F54" t="s">
         <v>46</v>
@@ -2163,16 +2163,16 @@
         <v>13</v>
       </c>
       <c r="B55" t="n">
-        <v>39.1</v>
+        <v>39.058</v>
       </c>
       <c r="C55" t="n">
-        <v>41.4</v>
+        <v>41.448</v>
       </c>
       <c r="D55" t="n">
-        <v>6.7</v>
+        <v>6.72</v>
       </c>
       <c r="E55" t="n">
-        <v>6.7</v>
+        <v>6.72</v>
       </c>
       <c r="F55" t="s">
         <v>46</v>
@@ -2192,10 +2192,10 @@
         <v>14</v>
       </c>
       <c r="B56" t="n">
-        <v>51.3</v>
+        <v>51.267</v>
       </c>
       <c r="C56" t="n">
-        <v>52</v>
+        <v>52.013</v>
       </c>
       <c r="D56" t="n">
         <v>9.1</v>
@@ -2221,16 +2221,16 @@
         <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>450.6</v>
+        <v>450.561</v>
       </c>
       <c r="C57" t="n">
-        <v>468.8</v>
+        <v>468.78</v>
       </c>
       <c r="D57" t="n">
-        <v>4.3</v>
+        <v>4.267</v>
       </c>
       <c r="E57" t="n">
-        <v>4.3</v>
+        <v>4.267</v>
       </c>
       <c r="F57" t="s">
         <v>46</v>
@@ -2250,16 +2250,16 @@
         <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.3</v>
+        <v>-0.35</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3</v>
+        <v>-0.35</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -2279,16 +2279,16 @@
         <v>13</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4</v>
+        <v>0.376</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1</v>
+        <v>-0.148</v>
       </c>
       <c r="F59" t="s">
         <v>48</v>
@@ -2308,16 +2308,16 @@
         <v>14</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6</v>
+        <v>0.626</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="F60" t="s">
         <v>48</v>
@@ -2337,16 +2337,16 @@
         <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7</v>
+        <v>0.749</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6</v>
+        <v>0.559</v>
       </c>
       <c r="F61" t="s">
         <v>48</v>
@@ -2372,7 +2372,7 @@
         <v>50</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.9</v>
+        <v>-1.88</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -2395,13 +2395,13 @@
         <v>13</v>
       </c>
       <c r="B63" t="n">
-        <v>44.1</v>
+        <v>44.125</v>
       </c>
       <c r="C63" t="n">
-        <v>44.1</v>
+        <v>44.125</v>
       </c>
       <c r="D63" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>50</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>15</v>
       </c>
       <c r="B65" t="n">
-        <v>53.5</v>
+        <v>53.489</v>
       </c>
       <c r="C65" t="n">
-        <v>62.1</v>
+        <v>62.134</v>
       </c>
       <c r="D65" t="n">
-        <v>1243858.7</v>
+        <v>1243858.689</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4</v>
+        <v>0.384</v>
       </c>
       <c r="F65" t="s">
         <v>50</v>
@@ -2482,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="B66" t="n">
-        <v>5.2</v>
+        <v>5.17</v>
       </c>
       <c r="C66" t="n">
         <v>5.4</v>
@@ -2491,7 +2491,7 @@
         <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="F66" t="s">
         <v>52</v>
@@ -2511,16 +2511,16 @@
         <v>13</v>
       </c>
       <c r="B67" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="C67" t="n">
-        <v>4.8</v>
+        <v>4.832</v>
       </c>
       <c r="D67" t="n">
-        <v>2.7</v>
+        <v>2.732</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="F67" t="s">
         <v>52</v>
@@ -2540,16 +2540,16 @@
         <v>14</v>
       </c>
       <c r="B68" t="n">
-        <v>5.7</v>
+        <v>5.655</v>
       </c>
       <c r="C68" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7</v>
+        <v>0.665</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9</v>
+        <v>0.855</v>
       </c>
       <c r="F68" t="s">
         <v>52</v>
@@ -2569,16 +2569,16 @@
         <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>5.2</v>
+        <v>5.241</v>
       </c>
       <c r="C69" t="n">
-        <v>5.7</v>
+        <v>5.655</v>
       </c>
       <c r="D69" t="n">
-        <v>3.4</v>
+        <v>3.423</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2</v>
+        <v>0.218</v>
       </c>
       <c r="F69" t="s">
         <v>52</v>
@@ -2598,16 +2598,16 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>20.7</v>
+        <v>20.69</v>
       </c>
       <c r="C70" t="n">
-        <v>20.8</v>
+        <v>20.75</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="F70" t="s">
         <v>54</v>
@@ -2627,16 +2627,16 @@
         <v>13</v>
       </c>
       <c r="B71" t="n">
-        <v>22.9</v>
+        <v>22.936</v>
       </c>
       <c r="C71" t="n">
-        <v>24.5</v>
+        <v>24.508</v>
       </c>
       <c r="D71" t="n">
-        <v>6.8</v>
+        <v>6.782</v>
       </c>
       <c r="E71" t="n">
-        <v>6.8</v>
+        <v>6.782</v>
       </c>
       <c r="F71" t="s">
         <v>54</v>
@@ -2656,10 +2656,10 @@
         <v>14</v>
       </c>
       <c r="B72" t="n">
-        <v>27.3</v>
+        <v>27.292</v>
       </c>
       <c r="C72" t="n">
-        <v>28.4</v>
+        <v>28.357</v>
       </c>
       <c r="D72" t="n">
         <v>5.6</v>
@@ -2685,16 +2685,16 @@
         <v>15</v>
       </c>
       <c r="B73" t="n">
-        <v>285.5</v>
+        <v>285.518</v>
       </c>
       <c r="C73" t="n">
-        <v>296.3</v>
+        <v>296.275</v>
       </c>
       <c r="D73" t="n">
-        <v>4.2</v>
+        <v>4.164</v>
       </c>
       <c r="E73" t="n">
-        <v>4.2</v>
+        <v>4.164</v>
       </c>
       <c r="F73" t="s">
         <v>54</v>
@@ -2720,10 +2720,10 @@
         <v>30.8</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.3</v>
+        <v>-2.34</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.3</v>
+        <v>-2.34</v>
       </c>
       <c r="F74" t="s">
         <v>56</v>
@@ -2743,16 +2743,16 @@
         <v>13</v>
       </c>
       <c r="B75" t="n">
-        <v>57.1</v>
+        <v>57.067</v>
       </c>
       <c r="C75" t="n">
-        <v>47.9</v>
+        <v>47.933</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.1</v>
+        <v>-2.087</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.5</v>
+        <v>-1.527</v>
       </c>
       <c r="F75" t="s">
         <v>56</v>
@@ -2775,13 +2775,13 @@
         <v>43.9</v>
       </c>
       <c r="C76" t="n">
-        <v>48.6</v>
+        <v>48.575</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="E76" t="n">
-        <v>5</v>
+        <v>5.05</v>
       </c>
       <c r="F76" t="s">
         <v>56</v>
@@ -2801,16 +2801,16 @@
         <v>15</v>
       </c>
       <c r="B77" t="n">
-        <v>15.2</v>
+        <v>15.195</v>
       </c>
       <c r="C77" t="n">
-        <v>10.9</v>
+        <v>10.886</v>
       </c>
       <c r="D77" t="n">
-        <v>22849.2</v>
+        <v>22849.218</v>
       </c>
       <c r="E77" t="n">
-        <v>8046.4</v>
+        <v>8046.392</v>
       </c>
       <c r="F77" t="s">
         <v>56</v>
@@ -2830,16 +2830,16 @@
         <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>39</v>
+        <v>38.996</v>
       </c>
       <c r="C78" t="n">
-        <v>51.8</v>
+        <v>51.771</v>
       </c>
       <c r="D78" t="n">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="E78" t="n">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="F78" t="s">
         <v>59</v>
@@ -2859,16 +2859,16 @@
         <v>13</v>
       </c>
       <c r="B79" t="n">
-        <v>46.7</v>
+        <v>46.743</v>
       </c>
       <c r="C79" t="n">
-        <v>60</v>
+        <v>59.993</v>
       </c>
       <c r="D79" t="n">
-        <v>3.4</v>
+        <v>3.382</v>
       </c>
       <c r="E79" t="n">
-        <v>2.4</v>
+        <v>2.422</v>
       </c>
       <c r="F79" t="s">
         <v>59</v>
@@ -2888,16 +2888,16 @@
         <v>14</v>
       </c>
       <c r="B80" t="n">
-        <v>54.3</v>
+        <v>54.292</v>
       </c>
       <c r="C80" t="n">
-        <v>63.3</v>
+        <v>63.331</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>2.035</v>
       </c>
       <c r="E80" t="n">
-        <v>2.2</v>
+        <v>2.217</v>
       </c>
       <c r="F80" t="s">
         <v>59</v>
@@ -2917,16 +2917,16 @@
         <v>15</v>
       </c>
       <c r="B81" t="n">
-        <v>78.3</v>
+        <v>78.342</v>
       </c>
       <c r="C81" t="n">
-        <v>82.9</v>
+        <v>82.906</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1</v>
+        <v>1.096</v>
       </c>
       <c r="E81" t="n">
-        <v>1.1</v>
+        <v>1.079</v>
       </c>
       <c r="F81" t="s">
         <v>59</v>
@@ -2946,16 +2946,16 @@
         <v>9</v>
       </c>
       <c r="B82" t="n">
-        <v>49.9</v>
+        <v>49.911</v>
       </c>
       <c r="C82" t="n">
-        <v>50</v>
+        <v>50.03</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F82" t="s">
         <v>62</v>
@@ -2975,16 +2975,16 @@
         <v>13</v>
       </c>
       <c r="B83" t="n">
-        <v>49.3</v>
+        <v>49.315</v>
       </c>
       <c r="C83" t="n">
-        <v>49.6</v>
+        <v>49.558</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1</v>
+        <v>0.056</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1</v>
+        <v>0.058</v>
       </c>
       <c r="F83" t="s">
         <v>62</v>
@@ -3004,16 +3004,16 @@
         <v>14</v>
       </c>
       <c r="B84" t="n">
-        <v>49.9</v>
+        <v>49.863</v>
       </c>
       <c r="C84" t="n">
-        <v>49.8</v>
+        <v>49.836</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F84" t="s">
         <v>62</v>
@@ -3033,16 +3033,16 @@
         <v>15</v>
       </c>
       <c r="B85" t="n">
-        <v>50</v>
+        <v>50.04</v>
       </c>
       <c r="C85" t="n">
-        <v>50.1</v>
+        <v>50.14</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="F85" t="s">
         <v>62</v>
@@ -3068,7 +3068,7 @@
         <v>75</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.1</v>
+        <v>-0.14</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -3097,10 +3097,10 @@
         <v>67</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F87" t="s">
         <v>64</v>
@@ -3126,10 +3126,10 @@
         <v>55.5</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>11.005</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F88" t="s">
         <v>64</v>
@@ -3149,16 +3149,16 @@
         <v>15</v>
       </c>
       <c r="B89" t="n">
-        <v>46.2</v>
+        <v>46.198</v>
       </c>
       <c r="C89" t="n">
-        <v>46.4</v>
+        <v>46.355</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>-0.027</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.4</v>
+        <v>-0.387</v>
       </c>
       <c r="F89" t="s">
         <v>64</v>
@@ -3178,16 +3178,16 @@
         <v>9</v>
       </c>
       <c r="B90" t="n">
-        <v>2.4</v>
+        <v>2.397</v>
       </c>
       <c r="C90" t="n">
-        <v>2.7</v>
+        <v>2.725</v>
       </c>
       <c r="D90" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="E90" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="F90" t="s">
         <v>66</v>
@@ -3207,16 +3207,16 @@
         <v>13</v>
       </c>
       <c r="B91" t="n">
-        <v>1.3</v>
+        <v>1.301</v>
       </c>
       <c r="C91" t="n">
-        <v>1.5</v>
+        <v>1.519</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>2.024</v>
       </c>
       <c r="E91" t="n">
-        <v>1.3</v>
+        <v>1.276</v>
       </c>
       <c r="F91" t="s">
         <v>66</v>
@@ -3236,16 +3236,16 @@
         <v>14</v>
       </c>
       <c r="B92" t="n">
-        <v>0.6</v>
+        <v>0.584</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9</v>
+        <v>0.874</v>
       </c>
       <c r="D92" t="n">
-        <v>269998.7</v>
+        <v>269998.725</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="F92" t="s">
         <v>66</v>
@@ -3265,16 +3265,16 @@
         <v>15</v>
       </c>
       <c r="B93" t="n">
-        <v>2.3</v>
+        <v>2.306</v>
       </c>
       <c r="C93" t="n">
-        <v>2.3</v>
+        <v>2.331</v>
       </c>
       <c r="D93" t="n">
-        <v>5269.4</v>
+        <v>5269.354</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9</v>
+        <v>0.919</v>
       </c>
       <c r="F93" t="s">
         <v>66</v>
@@ -3294,16 +3294,16 @@
         <v>9</v>
       </c>
       <c r="B94" t="n">
-        <v>10.5</v>
+        <v>10.487</v>
       </c>
       <c r="C94" t="n">
-        <v>10.3</v>
+        <v>10.281</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="F94" t="s">
         <v>68</v>
@@ -3323,16 +3323,16 @@
         <v>13</v>
       </c>
       <c r="B95" t="n">
-        <v>18.4</v>
+        <v>18.433</v>
       </c>
       <c r="C95" t="n">
-        <v>16.9</v>
+        <v>16.87</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.8</v>
+        <v>-1.752</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.8</v>
+        <v>-0.822</v>
       </c>
       <c r="F95" t="s">
         <v>68</v>
@@ -3352,16 +3352,16 @@
         <v>14</v>
       </c>
       <c r="B96" t="n">
-        <v>5.8</v>
+        <v>5.836</v>
       </c>
       <c r="C96" t="n">
-        <v>5.8</v>
+        <v>5.754</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.2</v>
+        <v>-0.155</v>
       </c>
       <c r="F96" t="s">
         <v>68</v>
@@ -3381,16 +3381,16 @@
         <v>15</v>
       </c>
       <c r="B97" t="n">
-        <v>35.4</v>
+        <v>35.387</v>
       </c>
       <c r="C97" t="n">
-        <v>33.5</v>
+        <v>33.491</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.6</v>
+        <v>-0.581</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5</v>
+        <v>-0.454</v>
       </c>
       <c r="F97" t="s">
         <v>68</v>
@@ -3416,7 +3416,7 @@
         <v>16.2</v>
       </c>
       <c r="D98" t="n">
-        <v>-5.3</v>
+        <v>-5.28</v>
       </c>
       <c r="E98" t="n">
         <v>-7.5</v>
@@ -3439,16 +3439,16 @@
         <v>13</v>
       </c>
       <c r="B99" t="n">
-        <v>9.8</v>
+        <v>9.85</v>
       </c>
       <c r="C99" t="n">
         <v>12.4</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>4.025</v>
       </c>
       <c r="E99" t="n">
-        <v>3.2</v>
+        <v>3.205</v>
       </c>
       <c r="F99" t="s">
         <v>70</v>
@@ -3468,16 +3468,16 @@
         <v>14</v>
       </c>
       <c r="B100" t="n">
-        <v>38.8</v>
+        <v>38.767</v>
       </c>
       <c r="C100" t="n">
         <v>32.2</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.7</v>
+        <v>-1.673</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.3</v>
+        <v>-1.277</v>
       </c>
       <c r="F100" t="s">
         <v>70</v>
@@ -3497,16 +3497,16 @@
         <v>15</v>
       </c>
       <c r="B101" t="n">
-        <v>10.8</v>
+        <v>10.766</v>
       </c>
       <c r="C101" t="n">
-        <v>10.2</v>
+        <v>10.199</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5</v>
+        <v>-0.512</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.5</v>
+        <v>-0.518</v>
       </c>
       <c r="F101" t="s">
         <v>70</v>
@@ -3532,10 +3532,10 @@
         <v>4.5</v>
       </c>
       <c r="D102" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="E102" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="F102" t="s">
         <v>72</v>
@@ -3555,16 +3555,16 @@
         <v>13</v>
       </c>
       <c r="B103" t="n">
-        <v>6.1</v>
+        <v>6.14</v>
       </c>
       <c r="C103" t="n">
-        <v>7.4</v>
+        <v>7.42</v>
       </c>
       <c r="D103" t="n">
-        <v>5.3</v>
+        <v>5.324</v>
       </c>
       <c r="E103" t="n">
-        <v>5.3</v>
+        <v>5.324</v>
       </c>
       <c r="F103" t="s">
         <v>72</v>
@@ -3584,16 +3584,16 @@
         <v>14</v>
       </c>
       <c r="B104" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="C104" t="n">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>3.042</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>3.042</v>
       </c>
       <c r="F104" t="s">
         <v>72</v>
@@ -3613,16 +3613,16 @@
         <v>15</v>
       </c>
       <c r="B105" t="n">
-        <v>18</v>
+        <v>18.008</v>
       </c>
       <c r="C105" t="n">
-        <v>19.8</v>
+        <v>19.766</v>
       </c>
       <c r="D105" t="n">
-        <v>3.2</v>
+        <v>3.176</v>
       </c>
       <c r="E105" t="n">
-        <v>3.2</v>
+        <v>3.176</v>
       </c>
       <c r="F105" t="s">
         <v>72</v>
@@ -3642,16 +3642,16 @@
         <v>9</v>
       </c>
       <c r="B106" t="n">
-        <v>597.9</v>
+        <v>597.892</v>
       </c>
       <c r="C106" t="n">
-        <v>804</v>
+        <v>803.978</v>
       </c>
       <c r="D106" t="n">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="F106" t="s">
         <v>75</v>
@@ -3671,16 +3671,16 @@
         <v>13</v>
       </c>
       <c r="B107" t="n">
-        <v>888.9</v>
+        <v>888.884</v>
       </c>
       <c r="C107" t="n">
-        <v>1100.7</v>
+        <v>1100.718</v>
       </c>
       <c r="D107" t="n">
-        <v>1.9</v>
+        <v>1.898</v>
       </c>
       <c r="E107" t="n">
-        <v>3.8</v>
+        <v>3.804</v>
       </c>
       <c r="F107" t="s">
         <v>75</v>
@@ -3700,16 +3700,16 @@
         <v>14</v>
       </c>
       <c r="B108" t="n">
-        <v>1841.1</v>
+        <v>1841.068</v>
       </c>
       <c r="C108" t="n">
-        <v>2840.4</v>
+        <v>2840.378</v>
       </c>
       <c r="D108" t="n">
-        <v>3.2</v>
+        <v>3.217</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.2</v>
+        <v>-4.183</v>
       </c>
       <c r="F108" t="s">
         <v>75</v>
@@ -3729,16 +3729,16 @@
         <v>15</v>
       </c>
       <c r="B109" t="n">
-        <v>13777.3</v>
+        <v>13777.297</v>
       </c>
       <c r="C109" t="n">
-        <v>32140.9</v>
+        <v>32140.911</v>
       </c>
       <c r="D109" t="n">
-        <v>3.5</v>
+        <v>3.471</v>
       </c>
       <c r="E109" t="n">
-        <v>3.2</v>
+        <v>3.184</v>
       </c>
       <c r="F109" t="s">
         <v>75</v>
@@ -3758,16 +3758,16 @@
         <v>9</v>
       </c>
       <c r="B110" t="n">
-        <v>46.6</v>
+        <v>46.586</v>
       </c>
       <c r="C110" t="n">
-        <v>36.6</v>
+        <v>36.618</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.8</v>
+        <v>-0.81</v>
       </c>
       <c r="E110" t="n">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="F110" t="s">
         <v>77</v>
@@ -3786,17 +3786,17 @@
       <c r="A111" t="s">
         <v>13</v>
       </c>
-      <c r="B111" t="e">
-        <v>#NUM!</v>
+      <c r="B111" t="n">
+        <v>37.423</v>
       </c>
       <c r="C111" t="n">
-        <v>32</v>
+        <v>32.045</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.3</v>
+        <v>-2.33</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.3</v>
+        <v>-2.33</v>
       </c>
       <c r="F111" t="s">
         <v>77</v>
@@ -3816,16 +3816,16 @@
         <v>14</v>
       </c>
       <c r="B112" t="n">
-        <v>43.5</v>
+        <v>43.455</v>
       </c>
       <c r="C112" t="n">
-        <v>48.3</v>
+        <v>48.266</v>
       </c>
       <c r="D112" t="n">
-        <v>479.1</v>
+        <v>479.12</v>
       </c>
       <c r="E112" t="n">
-        <v>-4.2</v>
+        <v>-4.18</v>
       </c>
       <c r="F112" t="s">
         <v>77</v>
@@ -3845,16 +3845,16 @@
         <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>23.7</v>
+        <v>23.792</v>
       </c>
       <c r="C113" t="n">
-        <v>24.2</v>
+        <v>24.201</v>
       </c>
       <c r="D113" t="n">
-        <v>10.3</v>
+        <v>10.264</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="F113" t="s">
         <v>77</v>
@@ -3874,16 +3874,16 @@
         <v>9</v>
       </c>
       <c r="B114" t="n">
-        <v>68.2</v>
+        <v>68.23</v>
       </c>
       <c r="C114" t="n">
-        <v>58.7</v>
+        <v>58.71</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.6</v>
+        <v>-1.65</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.6</v>
+        <v>-1.65</v>
       </c>
       <c r="F114" t="s">
         <v>79</v>
@@ -3903,16 +3903,16 @@
         <v>13</v>
       </c>
       <c r="B115" t="n">
-        <v>64.7</v>
+        <v>64.684</v>
       </c>
       <c r="C115" t="n">
-        <v>55.9</v>
+        <v>55.912</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.1</v>
+        <v>-2.136</v>
       </c>
       <c r="E115" t="n">
-        <v>-2.1</v>
+        <v>-2.086</v>
       </c>
       <c r="F115" t="s">
         <v>79</v>
@@ -3932,16 +3932,16 @@
         <v>14</v>
       </c>
       <c r="B116" t="n">
-        <v>71.8</v>
+        <v>71.788</v>
       </c>
       <c r="C116" t="n">
-        <v>65.9</v>
+        <v>65.852</v>
       </c>
       <c r="D116" t="n">
-        <v>-1</v>
+        <v>-1.032</v>
       </c>
       <c r="E116" t="n">
-        <v>-1</v>
+        <v>-1.005</v>
       </c>
       <c r="F116" t="s">
         <v>79</v>
@@ -3961,16 +3961,16 @@
         <v>15</v>
       </c>
       <c r="B117" t="n">
-        <v>26.7</v>
+        <v>26.705</v>
       </c>
       <c r="C117" t="n">
-        <v>22</v>
+        <v>22.015</v>
       </c>
       <c r="D117" t="n">
-        <v>-2.6</v>
+        <v>-2.58</v>
       </c>
       <c r="E117" t="n">
-        <v>-2.5</v>
+        <v>-2.499</v>
       </c>
       <c r="F117" t="s">
         <v>79</v>
@@ -3996,10 +3996,10 @@
         <v>35</v>
       </c>
       <c r="D118" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="E118" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="F118" t="s">
         <v>81</v>
@@ -4019,16 +4019,16 @@
         <v>13</v>
       </c>
       <c r="B119" t="n">
-        <v>45.5</v>
+        <v>45.467</v>
       </c>
       <c r="C119" t="n">
-        <v>45.1</v>
+        <v>45.067</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.6</v>
+        <v>-1.645</v>
       </c>
       <c r="E119" t="n">
-        <v>-1.5</v>
+        <v>-1.513</v>
       </c>
       <c r="F119" t="s">
         <v>81</v>
@@ -4051,13 +4051,13 @@
         <v>46.5</v>
       </c>
       <c r="C120" t="n">
-        <v>37.3</v>
+        <v>37.267</v>
       </c>
       <c r="D120" t="n">
-        <v>-1</v>
+        <v>-0.985</v>
       </c>
       <c r="E120" t="n">
-        <v>-1</v>
+        <v>-1.02</v>
       </c>
       <c r="F120" t="s">
         <v>81</v>
@@ -4077,16 +4077,16 @@
         <v>15</v>
       </c>
       <c r="B121" t="n">
-        <v>38.9</v>
+        <v>38.914</v>
       </c>
       <c r="C121" t="n">
-        <v>38.1</v>
+        <v>38.127</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.3</v>
+        <v>-0.274</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.3</v>
+        <v>-0.298</v>
       </c>
       <c r="F121" t="s">
         <v>81</v>
